--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3241737.788750873</v>
+        <v>3345917.423201946</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>3.18632154996877</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>41.96425921497215</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.97436107625121</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>57.0230304603534</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>68.17859308440507</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>286.8521209076275</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>121.4333428761231</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>164.4110575113746</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.8293786295326</v>
+        <v>88.01624809068225</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>47.86771985586876</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.8815889145675</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>29.6738200803744</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.6065435523131</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>95.21019414968995</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.602497644398836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>105.989310737304</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>35.41770597126624</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.228861054224375</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>97.54185816719693</v>
+        <v>6.434538210426277</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>12.96996784159929</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>72.77126028643525</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>112.0357928422981</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.368773976749</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>77.3950726440262</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>82.73433514019965</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>78.68827782033978</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4319,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>3116.409567377262</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>3116.409567377262</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780107</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501038</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>529.017994137768</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553749</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X4" t="n">
-        <v>1094.090022971289</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.2974438277594</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794327</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2466.057311715915</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4635,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653.2087215510568</v>
+        <v>699.5498076188339</v>
       </c>
       <c r="C7" t="n">
-        <v>653.2087215510568</v>
+        <v>530.6136246909271</v>
       </c>
       <c r="D7" t="n">
-        <v>503.092082138721</v>
+        <v>380.4969852785913</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>232.5838916961982</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>232.5838916961982</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,10 +4752,10 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
         <v>1356.675339798491</v>
@@ -4765,10 +4767,10 @@
         <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945869</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y7" t="n">
-        <v>653.2087215510568</v>
+        <v>881.1982724490737</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480556</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544678</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1878.943315910848</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1687.257431737674</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1687.257431737674</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1398.154564863318</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.594608541191</v>
+        <v>1143.470076657431</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.17743850423</v>
+        <v>1143.470076657431</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.17743850423</v>
+        <v>1143.470076657431</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3980557622425</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5264,28 +5266,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>304.7988649377482</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>304.7988649377482</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5940,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,43 +5986,43 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>555.9063198314551</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>409.0163723335447</v>
       </c>
       <c r="G25" t="n">
-        <v>129.5921236250085</v>
+        <v>241.8202730484247</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>100.1084418906227</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>3266.400361191265</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>3097.464178263358</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>2947.347538851023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>2799.43444526863</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>4186.248126100013</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>3896.830956063052</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>3668.841405165035</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>3448.048826021505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2977.325134535463</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>2977.325134535463</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>2827.208495123128</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3158.973599365703</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4677.732174780816</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4494.877340435721</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4275.275875458662</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3986.20064880286</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3731.516160596973</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3442.098990560012</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3442.098990560012</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6977,10 +6979,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2897.617548589219</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>2728.681365661312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661312</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4580.826493336714</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4361.225028359655</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>4072.149801703853</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>3817.465313497966</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>3528.048143461006</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>3300.058592562988</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>3079.266013419458</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3046.798896214207</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2877.8627132863</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>2727.746073873964</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>2727.746073873964</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F40" t="n">
-        <v>2727.746073873964</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>2560.549974588844</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.229491085994</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.239940187977</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3228.447361044447</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2968.622055159635</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>2799.685872231728</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>4143.154308274269</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>3888.469820068382</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>3599.052650031422</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>3371.063099133405</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y43" t="n">
-        <v>3150.270519989875</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-6.073566253381e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>12.68816929391076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>130.4994612393472</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.2294825375385</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>111.4161395899843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>75.03697526434115</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168744</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>48.89210447937224</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>53.40527886852239</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>72.64978773649599</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405065</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>33.38525518063312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9259388694749191</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.8503182118951</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>207.8347205162512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.057122371344655e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813236</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813235</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,13 +26435,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678125</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="I4" t="n">
-        <v>10557.08828678126</v>
-      </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26448,10 +26450,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.2164692634</v>
+        <v>-787485.2164692628</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583297</v>
+        <v>541259.5292583298</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583297</v>
+        <v>541259.5292583295</v>
       </c>
       <c r="E6" t="n">
-        <v>289339.8598029623</v>
+        <v>289339.8598029621</v>
       </c>
       <c r="F6" t="n">
-        <v>614752.321610317</v>
+        <v>614752.3216103169</v>
       </c>
       <c r="G6" t="n">
-        <v>614752.321610317</v>
+        <v>614752.3216103169</v>
       </c>
       <c r="H6" t="n">
+        <v>614752.3216103174</v>
+      </c>
+      <c r="I6" t="n">
         <v>614752.3216103172</v>
       </c>
-      <c r="I6" t="n">
-        <v>614752.3216103168</v>
-      </c>
       <c r="J6" t="n">
-        <v>397221.119213039</v>
+        <v>397221.1192130396</v>
       </c>
       <c r="K6" t="n">
+        <v>614752.3216103173</v>
+      </c>
+      <c r="L6" t="n">
         <v>614752.3216103171</v>
-      </c>
-      <c r="L6" t="n">
-        <v>614752.3216103169</v>
       </c>
       <c r="M6" t="n">
         <v>529697.2936748052</v>
@@ -26558,10 +26560,10 @@
         <v>614752.3216103172</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.3216103168</v>
+        <v>614752.3216103173</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.3216103171</v>
+        <v>614752.3216103169</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,10 +26922,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.757719550593582e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27159,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.757719550593582e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>247.8088504089332</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>307.2767095024408</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.8576191056861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>161.5616228917414</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>314.5552485790755</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>62.38884780978555</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25.00061977044605</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.614750747653602</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>111.443513141475</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>41.06443281417857</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.70306443752725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="21">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>316.6133175811567</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>730.4561889249562</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33740,25 +33742,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>272.9327299394441</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>599.1144768416229</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345917.423201946</v>
+        <v>3341904.813187952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>192.1784823165505</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>3.18632154996877</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>56.09817254341051</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.0230304603534</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.17859308440507</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>188.8108690340841</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="G7" t="n">
-        <v>164.4110575113746</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>88.01624809068225</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.86771985586876</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>127.6065435523131</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>95.21019414968995</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>105.989310737304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>31.247504338865</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>6.228861054224375</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>70.0455488112438</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.434538210426277</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.96996784159929</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.77126028643525</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>112.0357928422981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>274.1357181000197</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.73433514019965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>78.68827782033978</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1795.666214589424</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1426.703697649012</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1068.437999042261</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>682.6497464440172</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>271.6638416544096</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>260.6317955398102</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3116.409567377262</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>3116.409567377262</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.9746608886195</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1648.8631119071</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>754.9746608886195</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.5498076188339</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>530.6136246909271</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4969852785913</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>232.5838916961982</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>232.5838916961982</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.1982724490737</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4846,10 +4846,10 @@
         <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
         <v>624.6477645191717</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1878.943315910848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1687.257431737674</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1687.257431737674</v>
+        <v>1863.548351768162</v>
       </c>
       <c r="U10" t="n">
-        <v>1398.154564863318</v>
+        <v>1863.548351768162</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.470076657431</v>
+        <v>1863.548351768162</v>
       </c>
       <c r="W10" t="n">
-        <v>1143.470076657431</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>1143.470076657431</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>451.6888124356586</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>304.7988649377482</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>304.7988649377482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1048.112282329344</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2272.857469997002</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.872235754091</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>853.936052826184</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>703.8194134138482</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>555.9063198314551</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>409.0163723335447</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>241.8202730484247</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>100.1084418906227</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.302830625878</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.313279727861</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.520700584331</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="26">
@@ -6223,52 +6223,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3097.464178263358</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>2947.347538851023</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>2799.43444526863</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4677.732174780816</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4494.877340435721</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4275.275875458662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3986.20064880286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3731.516160596973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3442.098990560012</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3442.098990560012</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>416.6057892068301</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>430.7826650753331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.885660588917</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3598.088325557718</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-6.073566253381e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864916</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>130.4994612393472</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>148.5844758430723</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.03697526434115</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.37549921168744</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>139.9994244361429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.40527886852239</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>72.64978773649599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.38525518063312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>207.8347205162512</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767023</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.057122371344655e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813243</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26435,13 +26435,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26453,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.2164692628</v>
+        <v>-787485.2164692632</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583298</v>
+        <v>541259.5292583299</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583295</v>
+        <v>541259.5292583294</v>
       </c>
       <c r="E6" t="n">
-        <v>289339.8598029621</v>
+        <v>288992.4805486047</v>
       </c>
       <c r="F6" t="n">
-        <v>614752.3216103169</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="G6" t="n">
-        <v>614752.3216103169</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="H6" t="n">
-        <v>614752.3216103174</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="I6" t="n">
-        <v>614752.3216103172</v>
+        <v>614404.9423559601</v>
       </c>
       <c r="J6" t="n">
-        <v>397221.1192130396</v>
+        <v>396873.7399586824</v>
       </c>
       <c r="K6" t="n">
-        <v>614752.3216103173</v>
+        <v>614404.9423559597</v>
       </c>
       <c r="L6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="M6" t="n">
-        <v>529697.2936748052</v>
+        <v>529349.9144204479</v>
       </c>
       <c r="N6" t="n">
-        <v>614752.3216103172</v>
+        <v>614404.9423559604</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.3216103173</v>
+        <v>614404.9423559603</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.3216103169</v>
+        <v>614404.94235596</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26922,10 +26922,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.757719550593582e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,10 +27159,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.757719550593582e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>102.42928207077</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>247.8088504089332</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.1136656622024</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>161.5616228917414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.5552485790755</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>218.0651767076273</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="G7" t="n">
-        <v>1.614750747653602</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>277.2566436803253</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>41.06443281417857</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>156.4402149190418</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.496617987832442e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-5.45848103553946e-13</v>
       </c>
     </row>
     <row r="27">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>316.6133175811567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32253,7 +32253,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>730.4561889249562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>272.9327299394441</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193518</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>174.4792836591383</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>599.1144768416229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>130.3364854949997</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3341904.813187952</v>
+        <v>3343665.343490738</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>64.10541333226735</v>
       </c>
       <c r="H2" t="n">
-        <v>192.1784823165505</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>63.51844028320125</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>56.09817254341051</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8108690340841</v>
+        <v>320.549538738663</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.7389995830103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>58.9280504799215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>63.10873435712737</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.247504338865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>176.7621441121407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>274.1357181000197</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.666214589424</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.703697649012</v>
+        <v>1221.845010298012</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.437999042261</v>
+        <v>863.5793116912612</v>
       </c>
       <c r="E2" t="n">
-        <v>682.6497464440172</v>
+        <v>477.7910590930169</v>
       </c>
       <c r="F2" t="n">
-        <v>271.6638416544096</v>
+        <v>470.8455583438135</v>
       </c>
       <c r="G2" t="n">
-        <v>260.6317955398102</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653545</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y2" t="n">
-        <v>2182.266054653545</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1773.304050155919</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1551.537434725445</v>
       </c>
       <c r="U4" t="n">
-        <v>1648.8631119071</v>
+        <v>1551.537434725445</v>
       </c>
       <c r="V4" t="n">
-        <v>1394.178623701213</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="W4" t="n">
-        <v>1394.178623701213</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>1166.189072803195</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D5" t="n">
-        <v>654.050464674405</v>
+        <v>787.1198280123635</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761608</v>
+        <v>401.3315754141193</v>
       </c>
       <c r="F5" t="n">
         <v>77.54416254678287</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0353997452355</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4846,10 +4846,10 @@
         <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,10 +4992,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1863.548351768162</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1863.548351768162</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
         <v>1863.548351768162</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>198.0274703142544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,10 +5740,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1700.556314752913</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.871826547026</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1156.454656510065</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>928.4651056120481</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.672526468518</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.429237486245114e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.26924431238921e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.35543909864916</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038562</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.5844758430723</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>109.4223302771034</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>12.04875628922446</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695833.7131767023</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813248</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813246</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.2164692632</v>
+        <v>-787485.2164692631</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583299</v>
+        <v>541259.5292583298</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583294</v>
+        <v>541259.5292583293</v>
       </c>
       <c r="E6" t="n">
-        <v>288992.4805486047</v>
+        <v>289305.1218775262</v>
       </c>
       <c r="F6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="G6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="H6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="I6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848816</v>
       </c>
       <c r="J6" t="n">
-        <v>396873.7399586824</v>
+        <v>397186.3812876038</v>
       </c>
       <c r="K6" t="n">
-        <v>614404.9423559597</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="L6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="M6" t="n">
-        <v>529349.9144204479</v>
+        <v>529662.5557493694</v>
       </c>
       <c r="N6" t="n">
-        <v>614404.9423559604</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="O6" t="n">
-        <v>614404.9423559603</v>
+        <v>614717.5836848816</v>
       </c>
       <c r="P6" t="n">
-        <v>614404.94235596</v>
+        <v>614717.5836848816</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>346.8163123211861</v>
       </c>
       <c r="H2" t="n">
-        <v>102.42928207077</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>126.2505850482407</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.1136656622024</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.0651767076273</v>
+        <v>86.32650700304839</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.68204843992099</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>156.4402149190418</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.0289089667006</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.496617987832442e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.281837992243618e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-5.45848103553946e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043726</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36132,7 +36132,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
